--- a/biology/Botanique/Liste_de_sociétés_botaniques/Liste_de_sociétés_botaniques.xlsx
+++ b/biology/Botanique/Liste_de_sociétés_botaniques/Liste_de_sociétés_botaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_soci%C3%A9t%C3%A9s_botaniques</t>
+          <t>Liste_de_sociétés_botaniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Du XVIIIe siècle au début du XXe siècle, de nombreuses sociétés ou cercles botaniques ont été fondés, ainsi que des sociétés d'histoire naturelle et d'étude de la flore et de la faune. Plusieurs de ces sociétés sont encore actives de nos jours.
 Afrique
